--- a/_mdl/IexWznmDpl_wzsk.xlsx
+++ b/_mdl/IexWznmDpl_wzsk.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mpsitech/whiznium_dev/rep/wzsk/_mdl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66627BF2-6558-AD46-BB88-F980333FA0EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9532EDB8-3E8F-5B4D-92D5-3A05BDC8389A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16240" yWindow="9660" windowWidth="27160" windowHeight="24300" xr2:uid="{36BAB135-5A77-4D82-B2AA-398675C36B58}"/>
   </bookViews>
   <sheets>
     <sheet name="IexWznmDpl_wzsk" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -538,7 +538,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
